--- a/testCase/163mailTest.xlsx
+++ b/testCase/163mailTest.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>控制台输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Steps02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,6 +211,23 @@
   <si>
     <t>IOS163Mail::IosLogin163("driver","maomingtest","as123456")</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS客户端登录</t>
+    <rPh sb="3" eb="4">
+      <t>ke'h'd</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5登录</t>
+    <rPh sb="2" eb="3">
+      <t>deng'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -707,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -727,13 +740,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
@@ -741,19 +754,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -761,19 +774,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -796,7 +809,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -830,16 +843,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -847,16 +860,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +889,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -912,14 +925,14 @@
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +951,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -974,14 +987,14 @@
       <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
+      <c r="C2" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/163mailTest.xlsx
+++ b/testCase/163mailTest.xlsx
@@ -699,7 +699,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -734,7 +734,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>

--- a/testCase/163mailTest.xlsx
+++ b/testCase/163mailTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="440" windowWidth="20740" windowHeight="13900"/>
+    <workbookView xWindow="1480" yWindow="440" windowWidth="20740" windowHeight="13900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -734,7 +734,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -857,7 +857,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>

--- a/testCase/163mailTest.xlsx
+++ b/testCase/163mailTest.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/OSX/xiaoMWork/workspace/AppiumUiXM/testCase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="440" windowWidth="20740" windowHeight="13900" activeTab="1"/>
+    <workbookView xWindow="1485" yWindow="435" windowWidth="20745" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="iOSTest" sheetId="14" r:id="rId3"/>
     <sheet name="WapTest" sheetId="15" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -91,6 +86,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -233,8 +229,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +268,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -695,24 +692,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -732,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -752,7 +749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -772,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -805,23 +802,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="77.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="77.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -855,9 +852,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -885,23 +882,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -918,7 +915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -947,23 +944,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -980,7 +977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>

--- a/testCase/163mailTest.xlsx
+++ b/testCase/163mailTest.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/AppiumUiXM/testCase/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="435" windowWidth="20745" windowHeight="13740"/>
+    <workbookView xWindow="1480" yWindow="440" windowWidth="20740" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="iOSTest" sheetId="14" r:id="rId3"/>
     <sheet name="WapTest" sheetId="15" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -86,7 +91,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -229,8 +233,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,24 +696,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -729,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -749,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -769,7 +773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -802,23 +806,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="77.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="77.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -835,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -852,7 +856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -882,23 +886,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -915,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -944,23 +948,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="63.375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -977,7 +981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>

--- a/testCase/163mailTest.xlsx
+++ b/testCase/163mailTest.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaom/Desktop/AppiumUiXM/testCase/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="440" windowWidth="20740" windowHeight="13740"/>
+    <workbookView xWindow="1485" yWindow="435" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +113,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Android客户端发送邮件</t>
     <rPh sb="7" eb="8">
       <t>ke'h'd</t>
@@ -228,13 +219,128 @@
       <t>deng'lu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steps03</t>
+  </si>
+  <si>
+    <t>Steps04</t>
+  </si>
+  <si>
+    <t>Steps05</t>
+  </si>
+  <si>
+    <t>Steps06</t>
+  </si>
+  <si>
+    <t>Steps07</t>
+  </si>
+  <si>
+    <t>Steps08</t>
+  </si>
+  <si>
+    <t>上传附件</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lyou'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入内容</t>
+    <rPh sb="0" eb="1">
+      <t>fa'sogn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送并返回主界面</t>
+    <rPh sb="0" eb="1">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>you'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开未读邮件</t>
+    <rPh sb="0" eb="1">
+      <t>fa'sogn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载附件</t>
+    <rPh sb="0" eb="1">
+      <t>deng'lyou'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录</t>
+    <rPh sb="0" eb="1">
+      <t>fa'sogn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android163Mail::demo()</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android163Mail::demo2()</t>
+    <rPh sb="0" eb="23">
+      <t>ce'syou'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android163Mail::demo3()</t>
+    <rPh sb="0" eb="23">
+      <t>ce'syou'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android163Mail::demo4()</t>
+    <rPh sb="0" eb="23">
+      <t>ce'syou'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android163Mail::demo5()</t>
+    <rPh sb="0" eb="23">
+      <t>ce'syou'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android163Mail::demo6()</t>
+    <rPh sb="0" eb="23">
+      <t>ce'syou'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +473,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,24 +805,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -733,27 +842,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -761,19 +870,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -784,10 +893,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -806,23 +915,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="77.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="82.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -839,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -847,16 +956,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -864,19 +973,121 @@
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>25</v>
+      <c r="E3" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A9">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -886,23 +1097,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -919,7 +1130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -927,13 +1138,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -948,23 +1159,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -981,7 +1192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -989,13 +1200,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/163mailTest.xlsx
+++ b/testCase/163mailTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="435" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="1485" yWindow="435" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -918,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/testCase/163mailTest.xlsx
+++ b/testCase/163mailTest.xlsx
@@ -809,13 +809,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
@@ -919,7 +919,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -967,7 +967,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>36</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>37</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>38</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>39</v>

--- a/testCase/163mailTest.xlsx
+++ b/testCase/163mailTest.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="435" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="1485" yWindow="435" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="AndroidTest" sheetId="13" r:id="rId2"/>
+    <sheet name="AndroidTest112" sheetId="13" r:id="rId2"/>
     <sheet name="iOSTest" sheetId="14" r:id="rId3"/>
     <sheet name="WapTest" sheetId="15" r:id="rId4"/>
+    <sheet name="AndroidTest" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,12 +333,127 @@
     <t>APP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>S #</t>
+  </si>
+  <si>
+    <t>Time Out</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chao'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Step Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Property Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登录图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByXpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//div[@id='mySvg'][2]/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step02</t>
+  </si>
+  <si>
+    <t>等待3秒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入账户</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendkeys</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>maomingtest@163.com</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step04</t>
+  </si>
+  <si>
+    <t>设置用户参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>as123456</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,8 +495,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +549,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,12 +594,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,9 +636,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -805,14 +983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="6.375" customWidth="1"/>
@@ -822,7 +1000,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -842,7 +1020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -862,9 +1040,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -882,7 +1060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -915,14 +1093,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -931,7 +1109,7 @@
     <col min="5" max="5" width="82.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -948,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -965,7 +1143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -982,7 +1160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -999,7 +1177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1016,7 +1194,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1033,7 +1211,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +1228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1097,14 +1275,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -1113,7 +1291,7 @@
     <col min="5" max="5" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1159,14 +1337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -1175,7 +1353,7 @@
     <col min="5" max="5" width="63.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1192,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1218,4 +1396,186 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="14" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.75" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="14" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="19" style="14" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="11">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="11">
+        <v>10</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="15">
+        <v>3</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/testCase/163mailTest.xlsx
+++ b/testCase/163mailTest.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="435" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="1485" yWindow="435" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
-    <sheet name="AndroidTest112" sheetId="13" r:id="rId2"/>
-    <sheet name="iOSTest" sheetId="14" r:id="rId3"/>
-    <sheet name="WapTest" sheetId="15" r:id="rId4"/>
-    <sheet name="AndroidTest" sheetId="16" r:id="rId5"/>
+    <sheet name="配置" sheetId="17" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId2"/>
+    <sheet name="AndroidTest" sheetId="16" r:id="rId3"/>
+    <sheet name="iOSTest" sheetId="14" r:id="rId4"/>
+    <sheet name="WapTest" sheetId="15" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,14 +92,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Steps02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steps01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,40 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录163邮箱</t>
-    <rPh sb="0" eb="1">
-      <t>deng'l</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>you'x</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送邮件</t>
-    <rPh sb="0" eb="1">
-      <t>fa'sogn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you'j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android163Mail::Login163("driver","maomingtest@163.com","as123456")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android163Mail::SendMail("driver","maomingtest@163.com","测试邮件","Hello World !")</t>
-    <rPh sb="57" eb="58">
-      <t>ce's</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>you'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>H5登录163邮箱</t>
     <rPh sb="2" eb="3">
       <t>deng'lu</t>
@@ -219,117 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Steps03</t>
-  </si>
-  <si>
-    <t>Steps04</t>
-  </si>
-  <si>
-    <t>Steps05</t>
-  </si>
-  <si>
-    <t>Steps06</t>
-  </si>
-  <si>
-    <t>Steps07</t>
-  </si>
-  <si>
-    <t>Steps08</t>
-  </si>
-  <si>
-    <t>上传附件</t>
-    <rPh sb="0" eb="1">
-      <t>deng'lyou'x</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入内容</t>
-    <rPh sb="0" eb="1">
-      <t>fa'sogn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you'j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送并返回主界面</t>
-    <rPh sb="0" eb="1">
-      <t>deng'l</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>you'x</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开未读邮件</t>
-    <rPh sb="0" eb="1">
-      <t>fa'sogn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you'j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载附件</t>
-    <rPh sb="0" eb="1">
-      <t>deng'lyou'x</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出登录</t>
-    <rPh sb="0" eb="1">
-      <t>fa'sogn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>you'j</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android163Mail::demo()</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android163Mail::demo2()</t>
-    <rPh sb="0" eb="23">
-      <t>ce'syou'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android163Mail::demo3()</t>
-    <rPh sb="0" eb="23">
-      <t>ce'syou'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android163Mail::demo4()</t>
-    <rPh sb="0" eb="23">
-      <t>ce'syou'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android163Mail::demo5()</t>
-    <rPh sb="0" eb="23">
-      <t>ce'syou'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android163Mail::demo6()</t>
-    <rPh sb="0" eb="23">
-      <t>ce'syou'j</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>APP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,18 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击登录图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ByXpath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//div[@id='mySvg'][2]/*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Step01</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -398,55 +233,191 @@
     <t>Step02</t>
   </si>
   <si>
-    <t>等待3秒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maomingtest@163.com</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step04</t>
+  </si>
+  <si>
+    <t>sendkeys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S #</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase Type</t>
+    <rPh sb="2" eb="3">
+      <t>ku</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase URL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassWord</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地数据库</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>as105372</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入登陆账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.mail:id/editor_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入登陆密码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.mail:id/editor_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击登陆按钮</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.netease.mail:id/button_login</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置参数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置登陆账号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置登陆密码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>as105372</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${username}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${password}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待10秒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入账户</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendkeys</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>maomingtest@163.com</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Step04</t>
-  </si>
-  <si>
-    <t>设置用户参数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>set</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>as123456</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>设置收件人地址</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>maomingtest2@163.com</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置邮件内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一封测试邮件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step05</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Step06</t>
+  </si>
+  <si>
+    <t>Step07</t>
+  </si>
+  <si>
+    <t>Step08</t>
   </si>
 </sst>
 </file>
@@ -524,16 +495,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,8 +528,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -593,16 +575,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -633,9 +649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,13 +664,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -984,6 +1020,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="36.875" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1008,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -1028,13 +1181,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>12</v>
@@ -1042,19 +1195,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -1062,19 +1215,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>12</v>
@@ -1092,189 +1245,335 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="82.875" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="13" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="13" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="13" customWidth="1"/>
+    <col min="10" max="10" width="19" style="13" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="10">
+        <v>10</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="10">
+        <v>10</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="C11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A7:J7"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6 B8:B11 B12">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1316,13 +1615,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1378,13 +1677,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1396,186 +1695,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="14" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20.75" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="14" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="19" style="14" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="14" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="11">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="11">
-        <v>10</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="15">
-        <v>3</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
-      <formula1>"YES,NO"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
 </file>